--- a/biology/Botanique/Colli_del_Trasimeno/Colli_del_Trasimeno.xlsx
+++ b/biology/Botanique/Colli_del_Trasimeno/Colli_del_Trasimeno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Colli del Trasimeno est un vignoble de la région Ombrie doté d'une appellation DOC depuis le 13 janvier 1972. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. 
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Pérouse près du Lac Trasimène dans les communes de Castiglione del Lago, Città della Pieve, Paciano, Piegaro, Panicale, Pérouse, Corciano, Magione, Passignano sul Trasimeno et Tuoro sul Trasimeno.
 </t>
@@ -542,7 +556,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cépages utilés sont: Grechetto, Chardonnay, Sauvignon, Pinot blanc, Pinot gris, Riesling italico, Vermentino, Ciliegiolo, Cabernet sauvignon, Gamay et Sangiovese.
 Actuellement, l'appellation Colli del Trasimeno est subdivisée en sous-appellations selon le cépage.
@@ -574,7 +590,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les appellations sont:
 Colli del Trasimeno Cabernet Sauvignon
